--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="00000000000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
+    <numFmt numFmtId="165" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +234,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -307,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,10 +339,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +373,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,31 +548,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -649,7 +647,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -697,7 +695,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -744,7 +742,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -755,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -774,24 +772,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -126,18 +126,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>Shwetha</t>
+    <t>Peri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +339,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,31 +550,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -647,7 +649,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -695,7 +697,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -742,7 +744,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -753,9 +755,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
         <v>36</v>
@@ -765,31 +773,32 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>ABBOTSFORD</t>
   </si>
   <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
     <t>V4X 1A5</t>
   </si>
   <si>
@@ -127,17 +124,20 @@
   </si>
   <si>
     <t>Peri</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,10 +339,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +373,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,31 +548,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,10 +622,10 @@
         <v>23</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -635,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -649,7 +647,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -667,16 +665,16 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="5">
         <v>12345678901</v>
@@ -697,9 +695,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -711,13 +709,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -744,9 +742,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -755,9 +753,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -766,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -781,24 +779,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -126,7 +126,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>Peri</t>
+    <t>Shwetha</t>
   </si>
 </sst>
 </file>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -99,9 +99,6 @@
     <t>V4X 1A5</t>
   </si>
   <si>
-    <t>1001 DurhamAvenue</t>
-  </si>
-  <si>
     <t>south palinfield</t>
   </si>
   <si>
@@ -127,17 +124,30 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>pkomma@coredatalabs.com</t>
+  </si>
+  <si>
+    <t>1001 6Th Ave Ph 1</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>41111111111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
+    <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,9 +236,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,6 +255,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -307,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +352,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +387,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,144 +563,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="3" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="S2" s="11">
+        <v>4111111111111110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>12345678901</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6">
-        <v>211111111111111</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="M3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
         <v>123</v>
       </c>
       <c r="O3">
@@ -695,42 +713,42 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>7080</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>12345678901</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1">
-        <v>411111111111111</v>
+      <c r="M4" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N4">
         <v>123</v>
@@ -742,61 +760,104 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="M6" s="12"/>
       <c r="Q6" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M9" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>41111111111111</t>
+  </si>
+  <si>
+    <t>OrderWithMonogram</t>
+  </si>
+  <si>
+    <t>FirstMonoInput</t>
+  </si>
+  <si>
+    <t>SecondMonoInput</t>
+  </si>
+  <si>
+    <t>ThirdMonoInput</t>
+  </si>
+  <si>
+    <t>1 Beaver Creek Rd</t>
+  </si>
+  <si>
+    <t>Abbottstown PA</t>
+  </si>
+  <si>
+    <t>pennsylvania</t>
+  </si>
+  <si>
+    <t>378282224110005</t>
   </si>
 </sst>
 </file>
@@ -145,7 +169,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
-    <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -236,7 +260,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,9 +280,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,15 +590,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
@@ -585,10 +611,12 @@
     <col min="13" max="13" width="33.109375" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,8 +668,17 @@
       <c r="Q1" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -661,11 +698,9 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="S2" s="11">
-        <v>4111111111111110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -713,7 +748,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -760,7 +795,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -772,7 +807,7 @@
       </c>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -787,31 +822,81 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>17301</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2345678901</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7">
+        <v>1234</v>
+      </c>
+      <c r="O7" s="10">
+        <v>3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2019</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M9" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.3">

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -126,9 +126,6 @@
     <t>California</t>
   </si>
   <si>
-    <t>pkomma@coredatalabs.com</t>
-  </si>
-  <si>
     <t>1001 6Th Ave Ph 1</t>
   </si>
   <si>
@@ -160,6 +157,21 @@
   </si>
   <si>
     <t>378282224110005</t>
+  </si>
+  <si>
+    <t>skara@coredatalabs.com</t>
+  </si>
+  <si>
+    <t>SKUID</t>
+  </si>
+  <si>
+    <t>014757D</t>
+  </si>
+  <si>
+    <t>0012DH</t>
+  </si>
+  <si>
+    <t>00171B</t>
   </si>
 </sst>
 </file>
@@ -590,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +628,7 @@
     <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,16 +681,19 @@
         <v>33</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -700,7 +715,7 @@
       <c r="N2" s="2"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -736,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
         <v>123</v>
@@ -747,13 +762,16 @@
       <c r="P3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -762,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -783,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4">
         <v>123</v>
@@ -794,8 +812,11 @@
       <c r="P4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -807,7 +828,7 @@
       </c>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -822,9 +843,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -836,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
       </c>
       <c r="J7">
         <v>17301</v>
@@ -854,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1234</v>
@@ -874,29 +895,32 @@
       <c r="T7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M9" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.3">

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>00171B</t>
+  </si>
+  <si>
+    <t>OrderWithGiftServices</t>
+  </si>
+  <si>
+    <t>RecipientName</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>Hi….</t>
+  </si>
+  <si>
+    <t>2 Beaver Creek Rd</t>
   </si>
 </sst>
 </file>
@@ -602,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,9 +650,11 @@
     <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.5546875" customWidth="1"/>
     <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +718,17 @@
       <c r="U1" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,7 +750,7 @@
       <c r="N2" s="2"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -766,7 +801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -816,7 +851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -837,13 +872,16 @@
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5555555555</v>
       </c>
       <c r="M6" s="12"/>
       <c r="Q6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -899,28 +937,81 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>17301</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2345678901</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8">
+        <v>1234</v>
+      </c>
+      <c r="O8" s="10">
+        <v>3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>2019</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M9" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.3">

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
+    <sheet name="Cart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -196,18 +196,54 @@
   </si>
   <si>
     <t>2 Beaver Creek Rd</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>NewRegistration</t>
+  </si>
+  <si>
+    <t>Tumi</t>
+  </si>
+  <si>
+    <t>Ecom</t>
+  </si>
+  <si>
+    <t>Tumi1301193945@gmai.com</t>
+  </si>
+  <si>
+    <t>ExistingAccount</t>
+  </si>
+  <si>
+    <t>TumiEcom@123</t>
+  </si>
+  <si>
+    <t>VerifyCart</t>
+  </si>
+  <si>
+    <t>ProductQ</t>
+  </si>
+  <si>
+    <t>skurry@coredatalabs.com</t>
+  </si>
+  <si>
+    <t>Sharvah@189</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -279,15 +315,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -296,7 +323,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,22 +332,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,10 +436,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +470,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,36 +645,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,38 +723,38 @@
       <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,10 +773,20 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="S2" s="11"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -776,7 +812,7 @@
       <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="4">
@@ -785,74 +821,89 @@
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="2">
         <v>123</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>2020</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:24">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <v>7080</v>
       </c>
       <c r="K4" s="4">
         <v>12345678901</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>123</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>2020</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:24">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -861,10 +912,30 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -873,158 +944,155 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>5555555555</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="Q6" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:24">
+      <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>17301</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>2345678901</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>1234</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="7">
         <v>3</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="7">
         <v>2019</v>
       </c>
-      <c r="R7">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
         <v>1</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>3</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>17301</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <v>2345678901</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>1234</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="7">
         <v>3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="7">
         <v>2019</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M9" s="10"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M20" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1040,25 +1108,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
-    <sheet name="Registration" sheetId="2" r:id="rId2"/>
-    <sheet name="Cart" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="4" r:id="rId2"/>
+    <sheet name="Registration" sheetId="2" r:id="rId3"/>
+    <sheet name="Cart" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -232,18 +233,87 @@
   </si>
   <si>
     <t>Sharvah@189</t>
+  </si>
+  <si>
+    <t>TumiOrderCA</t>
+  </si>
+  <si>
+    <t>29 GLADWIN RD</t>
+  </si>
+  <si>
+    <t>07081</t>
+  </si>
+  <si>
+    <t>TumiStudioOrder</t>
+  </si>
+  <si>
+    <t>0117474T999</t>
+  </si>
+  <si>
+    <t>PayPalOrder</t>
+  </si>
+  <si>
+    <t>test@tumi.com</t>
+  </si>
+  <si>
+    <t>passw0rd</t>
+  </si>
+  <si>
+    <t>luggage</t>
+  </si>
+  <si>
+    <t>GoogleLogin</t>
+  </si>
+  <si>
+    <t>emptumi@gmail.com</t>
+  </si>
+  <si>
+    <t>tumi1234</t>
+  </si>
+  <si>
+    <t>InstagramLogin</t>
+  </si>
+  <si>
+    <t>TumiUS</t>
+  </si>
+  <si>
+    <t>tumi123</t>
+  </si>
+  <si>
+    <t>VerifyInvalidInstaLogin</t>
+  </si>
+  <si>
+    <t>RegularUserLogin</t>
+  </si>
+  <si>
+    <t>south plainfield</t>
+  </si>
+  <si>
+    <t>07080</t>
+  </si>
+  <si>
+    <t>GmailLogin</t>
+  </si>
+  <si>
+    <t>AddressLineForShip2</t>
+  </si>
+  <si>
+    <t>PrdouctName</t>
+  </si>
+  <si>
+    <t>Employee.tumi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -315,6 +385,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -323,7 +417,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +437,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +542,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,6 +577,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,42 +753,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -786,7 +894,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -844,7 +952,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -902,7 +1010,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -934,7 +1042,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -970,7 +1078,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1140,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1092,6 +1200,80 @@
       </c>
       <c r="X8" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="4">
+        <v>12345678902</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>123</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>2020</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="V11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1101,32 +1283,337 @@
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345678901</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>1234</v>
+      </c>
+      <c r="P6" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>2019</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12345678901</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>1234</v>
+      </c>
+      <c r="P7" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>2019</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="T8" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4" display="Employee.tumi@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId5" display="Employee.tumi@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1169,7 +1656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1186,23 +1673,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Employee.tumi</t>
+  </si>
+  <si>
+    <t>MultiShipOrder</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -378,15 +381,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -437,18 +431,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,27 +762,29 @@
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,61 +804,67 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -887,14 +889,16 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -911,48 +915,50 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>12345678901</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>123</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>4</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>2020</v>
       </c>
-      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -969,48 +975,50 @@
       <c r="F4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>7080</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>12345678901</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>123</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>6</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>2020</v>
       </c>
-      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1023,14 +1031,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1041,8 +1049,10 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1055,30 +1065,32 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <v>5555555555</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1096,51 +1108,53 @@
         <v>43</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>17301</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>2345678901</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>1234</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>3</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>2019</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>2</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>3</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1158,122 +1172,240 @@
         <v>59</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>17301</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>2345678901</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>1234</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>2019</v>
       </c>
-      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="19" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="4">
         <v>12345678902</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>123</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>6</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>2020</v>
       </c>
-      <c r="V9" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="V10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="V11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12345678901</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P12" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>2019</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1285,9 +1417,10 @@
     <hyperlink ref="B4" r:id="rId5"/>
     <hyperlink ref="B9" r:id="rId6"/>
     <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1295,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,7 +1545,7 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="14"/>
       <c r="Z2" t="s">
         <v>80</v>
       </c>
@@ -1421,13 +1554,13 @@
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1439,7 +1572,7 @@
       <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1451,7 +1584,7 @@
       <c r="C5">
         <v>123</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1481,7 +1614,7 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="4">
@@ -1490,16 +1623,16 @@
       <c r="M6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O6">
         <v>1234</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <v>3</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <v>2019</v>
       </c>
       <c r="Z6" t="s">
@@ -1534,7 +1667,7 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="4">
@@ -1543,16 +1676,16 @@
       <c r="M7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O7">
         <v>1234</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <v>3</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <v>2019</v>
       </c>
       <c r="Z7" t="s">
@@ -1563,7 +1696,7 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1580,7 +1713,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="T8" s="20"/>
+      <c r="T8" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="103">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>Tumi_88864</t>
+  </si>
+  <si>
+    <t>OrderWithVochercode</t>
+  </si>
+  <si>
+    <t>1001 Durham Ave</t>
+  </si>
+  <si>
+    <t>VocherID</t>
+  </si>
+  <si>
+    <t>EOM-20K4-TNGY-DNPD-GN</t>
   </si>
 </sst>
 </file>
@@ -420,7 +432,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,6 +470,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,9 +812,10 @@
     <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,8 +894,11 @@
       <c r="Z1" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -913,7 +932,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,7 +992,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1033,7 +1052,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1086,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1124,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1188,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1233,7 +1252,7 @@
       </c>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -1293,7 +1312,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -1325,7 +1344,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1361,7 +1380,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -1423,6 +1442,63 @@
         <v>80</v>
       </c>
     </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>9087654400</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="2">
+        <v>123</v>
+      </c>
+      <c r="P13" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>2028</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="25"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -1433,9 +1509,10 @@
     <hyperlink ref="B9" r:id="rId6"/>
     <hyperlink ref="B11" r:id="rId7"/>
     <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1443,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -1721,7 +1721,7 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4" display="Employee.tumi@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId5" display="Employee.tumi@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -325,7 +325,13 @@
     <t>VocherID</t>
   </si>
   <si>
-    <t>EOM-20K4-TNGY-DNPD-GN</t>
+    <t>OrderWithPreorderVochercode</t>
+  </si>
+  <si>
+    <t>0484660D</t>
+  </si>
+  <si>
+    <t>T50-F5GD-BTXA-GZWB</t>
   </si>
 </sst>
 </file>
@@ -780,13 +786,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1492,7 +1498,57 @@
         <v>80</v>
       </c>
       <c r="AA13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>102</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2">
+        <v>17301</v>
+      </c>
+      <c r="L14">
+        <v>9087654400</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P14" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>2028</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -1510,9 +1566,10 @@
     <hyperlink ref="B11" r:id="rId7"/>
     <hyperlink ref="B12" r:id="rId8"/>
     <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
@@ -337,13 +337,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,7 +438,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,9 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,10 +570,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +604,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
@@ -821,7 +817,7 @@
     <col min="27" max="27" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -937,8 +933,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,8 +994,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1057,8 +1055,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1091,8 +1090,9 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1129,8 +1129,9 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1193,8 +1194,9 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1257,8 +1259,9 @@
         <v>58</v>
       </c>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -1317,8 +1320,9 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -1349,8 +1353,9 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1385,8 +1390,9 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -1447,23 +1453,27 @@
       <c r="Z12" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
         <v>89</v>
       </c>
@@ -1473,7 +1483,7 @@
       <c r="K13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>9087654400</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -1485,38 +1495,48 @@
       <c r="O13" s="2">
         <v>123</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="23">
         <v>10</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="23">
         <v>2028</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:27">
+      <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1526,7 +1546,7 @@
       <c r="K14" s="2">
         <v>17301</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>9087654400</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -1538,22 +1558,26 @@
       <c r="O14" s="2">
         <v>1234</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="23">
         <v>12</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="23">
         <v>2028</v>
       </c>
-      <c r="V14" s="23" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1574,14 +1598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -1604,7 +1628,7 @@
     <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="21" t="s">
         <v>96</v>
       </c>
@@ -1718,7 +1742,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1733,7 +1757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1745,7 +1769,7 @@
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1757,7 +1781,7 @@
       </c>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1769,7 +1793,7 @@
       </c>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15.75" thickBot="1">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1875,7 +1899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1912,14 +1936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
@@ -1930,7 +1954,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1973,7 +1997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1991,14 +2015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -2006,7 +2030,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>68</v>
       </c>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Hi….</t>
-  </si>
-  <si>
-    <t>2 Beaver Creek Rd</t>
   </si>
   <si>
     <t>ConfirmPassword</t>
@@ -337,13 +334,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,7 +435,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +474,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,7 +536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,9 +568,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,6 +603,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -779,45 +779,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD99"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -894,13 +894,13 @@
         <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -996,12 +996,12 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -1057,7 +1057,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1146,18 +1146,18 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="2">
-        <v>17301</v>
+        <v>16</v>
+      </c>
+      <c r="K7" s="24">
+        <v>7080</v>
       </c>
       <c r="L7" s="11">
         <v>2345678901</v>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1196,7 +1196,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1211,18 +1211,18 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2">
-        <v>17301</v>
+        <v>16</v>
+      </c>
+      <c r="K8" s="24">
+        <v>7080</v>
       </c>
       <c r="L8" s="11">
         <v>2345678901</v>
@@ -1261,12 +1261,12 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1276,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10" t="s">
@@ -1289,7 +1289,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" s="4">
         <v>12345678902</v>
@@ -1322,9 +1322,9 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1347,7 +1347,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1355,15 +1355,15 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1392,9 +1392,9 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1416,13 +1416,13 @@
         <v>43</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="4">
         <v>12345678901</v>
@@ -1451,13 +1451,13 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
@@ -1470,18 +1470,18 @@
         <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2">
         <v>9087654400</v>
@@ -1512,15 +1512,15 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -1569,14 +1569,14 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1585,12 +1585,12 @@
     <hyperlink ref="B5" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId11"/>
@@ -1598,37 +1598,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1705,18 +1705,18 @@
         <v>55</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -1742,7 +1742,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1754,48 +1754,48 @@
       </c>
       <c r="N3" s="14"/>
       <c r="Z3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
+      <c r="B4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" t="s">
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>123</v>
       </c>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1816,13 +1816,13 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="4">
         <v>12345678901</v>
@@ -1843,15 +1843,15 @@
         <v>2019</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1869,13 +1869,13 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="4">
         <v>12345678901</v>
@@ -1896,15 +1896,15 @@
         <v>2019</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1928,7 +1928,7 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink ref="B8" r:id="rId4" display="Employee.tumi@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId5" display="Employee.tumi@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId5"/>
     <hyperlink ref="B2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,25 +1936,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>8</v>
@@ -1974,35 +1974,35 @@
         <v>10</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2015,22 +2015,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,21 +2044,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
       <c r="E2">
         <v>5</v>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="114">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -235,12 +235,6 @@
     <t>TumiOrderCA</t>
   </si>
   <si>
-    <t>29 GLADWIN RD</t>
-  </si>
-  <si>
-    <t>07081</t>
-  </si>
-  <si>
     <t>TumiStudioOrder</t>
   </si>
   <si>
@@ -329,6 +323,42 @@
   </si>
   <si>
     <t>T50-F5GD-BTXA-GZWB</t>
+  </si>
+  <si>
+    <t>10 SUMAS WAY</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>V2S 8B7</t>
+  </si>
+  <si>
+    <t>OrderWithMonogramCA</t>
+  </si>
+  <si>
+    <t>OrderWithGiftServicesCA</t>
+  </si>
+  <si>
+    <t>PreOrder</t>
+  </si>
+  <si>
+    <t>PreOrderWithMonogram</t>
+  </si>
+  <si>
+    <t>PreOrderWithGiftServices</t>
+  </si>
+  <si>
+    <t>PreOrderWithVoucher</t>
+  </si>
+  <si>
+    <t>PrdouctSearch</t>
+  </si>
+  <si>
+    <t>GuestOrderWithTwoDiffProducts</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -780,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -894,10 +924,10 @@
         <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -1276,20 +1306,20 @@
         <v>11</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L9" s="4">
         <v>12345678902</v>
@@ -1324,30 +1354,62 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12345678902</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P10" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>2019</v>
+      </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3</v>
+      </c>
       <c r="V10" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1357,197 +1419,173 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="4">
+        <v>12345678902</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P11" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>2019</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="4">
-        <v>12345678901</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1234</v>
-      </c>
-      <c r="P12" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>2019</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>98</v>
+      <c r="A13" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="2">
-        <v>9087654400</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="2">
-        <v>123</v>
-      </c>
-      <c r="P13" s="23">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>2028</v>
-      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2">
-        <v>17301</v>
-      </c>
-      <c r="L14" s="2">
-        <v>9087654400</v>
+        <v>16</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12345678901</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>11</v>
@@ -1558,26 +1596,468 @@
       <c r="O14" s="2">
         <v>1234</v>
       </c>
-      <c r="P14" s="23">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>2028</v>
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>2019</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="Z14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="2">
+        <v>9087654400</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="2">
+        <v>123</v>
+      </c>
+      <c r="P15" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>2028</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2">
+        <v>17301</v>
+      </c>
+      <c r="L16" s="2">
+        <v>9087654400</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P16" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>2028</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6">
+        <v>7080</v>
+      </c>
+      <c r="L17" s="4">
+        <v>12345678901</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="2">
+        <v>123</v>
+      </c>
+      <c r="P17" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="24">
+        <v>7080</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2345678901</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P18" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2019</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="24">
+        <v>7080</v>
+      </c>
+      <c r="L19" s="4">
+        <v>12345678902</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P19" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>2019</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="24">
+        <v>7080</v>
+      </c>
+      <c r="L20" s="4">
+        <v>12345678902</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P20" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>2028</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="24">
+        <v>7080</v>
+      </c>
+      <c r="L22" s="4">
+        <v>12345678902</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1234</v>
+      </c>
+      <c r="P22" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>2019</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1586,14 +2066,16 @@
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
     <hyperlink ref="B4" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
+    <hyperlink ref="B22" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1648,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1705,18 +2187,18 @@
         <v>55</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -1754,39 +2236,39 @@
       </c>
       <c r="N3" s="14"/>
       <c r="Z3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
       </c>
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>123</v>
@@ -1795,7 +2277,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1816,13 +2298,13 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L7" s="4">
         <v>12345678901</v>
@@ -1843,15 +2325,15 @@
         <v>2019</v>
       </c>
       <c r="Z7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1869,13 +2351,13 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L8" s="4">
         <v>12345678901</v>
@@ -1896,7 +2378,7 @@
         <v>2019</v>
       </c>
       <c r="Z8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1904,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA5956-56D7-4BFB-A388-0222D940770A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -364,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
@@ -408,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -440,6 +441,95 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,7 +543,42 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,7 +590,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,26 +610,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,6 +737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -634,6 +789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,45 +981,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.89453125" customWidth="1"/>
+    <col min="2" max="2" width="26.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5234375" customWidth="1"/>
+    <col min="8" max="8" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.3125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.41796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.68359375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +1102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -965,7 +1137,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1198,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1259,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1294,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1333,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1358,7 @@
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="16">
         <v>7080</v>
       </c>
       <c r="L7" s="11">
@@ -1226,7 +1398,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1251,7 +1423,7 @@
       <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="16">
         <v>7080</v>
       </c>
       <c r="L8" s="11">
@@ -1291,7 +1463,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1318,7 +1490,7 @@
       <c r="J9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="13" t="s">
         <v>104</v>
       </c>
       <c r="L9" s="4">
@@ -1352,7 +1524,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>105</v>
       </c>
@@ -1377,7 +1549,7 @@
       <c r="J10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="13" t="s">
         <v>104</v>
       </c>
       <c r="L10" s="4">
@@ -1417,7 +1589,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -1442,7 +1614,7 @@
       <c r="J11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="13" t="s">
         <v>104</v>
       </c>
       <c r="L11" s="4">
@@ -1482,7 +1654,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1515,7 +1687,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -1552,7 +1724,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -1581,7 +1753,7 @@
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L14" s="4">
@@ -1615,7 +1787,7 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>96</v>
       </c>
@@ -1640,7 +1812,7 @@
       <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L15" s="2">
@@ -1655,10 +1827,10 @@
       <c r="O15" s="2">
         <v>123</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="15">
         <v>10</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="15">
         <v>2028</v>
       </c>
       <c r="R15" s="2"/>
@@ -1678,7 +1850,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -1718,10 +1890,10 @@
       <c r="O16" s="2">
         <v>1234</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="15">
         <v>12</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="15">
         <v>2028</v>
       </c>
       <c r="R16" s="2"/>
@@ -1739,7 +1911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>107</v>
       </c>
@@ -1800,7 +1972,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>108</v>
       </c>
@@ -1825,7 +1997,7 @@
       <c r="J18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="16">
         <v>7080</v>
       </c>
       <c r="L18" s="11">
@@ -1865,7 +2037,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1890,7 +2062,7 @@
       <c r="J19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="16">
         <v>7080</v>
       </c>
       <c r="L19" s="4">
@@ -1932,7 +2104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>110</v>
       </c>
@@ -1957,7 +2129,7 @@
       <c r="J20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="16">
         <v>7080</v>
       </c>
       <c r="L20" s="4">
@@ -1972,10 +2144,10 @@
       <c r="O20" s="2">
         <v>1234</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="15">
         <v>12</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="15">
         <v>2028</v>
       </c>
       <c r="R20" s="2"/>
@@ -1993,7 +2165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2001,7 +2173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -2025,7 +2197,7 @@
       <c r="J22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="16">
         <v>7080</v>
       </c>
       <c r="L22" s="4">
@@ -2061,18 +2233,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
-    <hyperlink ref="B15" r:id="rId8"/>
-    <hyperlink ref="B16" r:id="rId9"/>
-    <hyperlink ref="B4" r:id="rId10"/>
-    <hyperlink ref="B17" r:id="rId11"/>
-    <hyperlink ref="B22" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId13"/>
@@ -2080,152 +2252,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2234,49 +2406,136 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="Z3" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="23"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>123</v>
       </c>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="23"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2285,51 +2544,60 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="26" t="s">
         <v>87</v>
       </c>
       <c r="L7" s="4">
         <v>12345678901</v>
       </c>
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="22">
         <v>1234</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="24">
         <v>3</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="24">
         <v>2019</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2338,105 +2606,125 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="26" t="s">
         <v>87</v>
       </c>
       <c r="L8" s="4">
         <v>12345678901</v>
       </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="22">
         <v>1234</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="24">
         <v>3</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="24">
         <v>2019</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="T9" s="18"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4" display="Employee.tumi@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" display="Employee.tumi@gmail.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2479,7 +2767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2489,30 +2777,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2817,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -2548,8 +2836,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA5956-56D7-4BFB-A388-0222D940770A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceOrder" sheetId="1" r:id="rId1"/>
@@ -194,9 +193,6 @@
     <t>test2</t>
   </si>
   <si>
-    <t>Hi….</t>
-  </si>
-  <si>
     <t>ConfirmPassword</t>
   </si>
   <si>
@@ -360,18 +356,21 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="00000000000"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,27 +735,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,24 +769,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -981,45 +944,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.89453125" customWidth="1"/>
-    <col min="2" max="2" width="26.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5234375" customWidth="1"/>
-    <col min="8" max="8" width="12.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.89453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.89453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5234375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.89453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.3125" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1096,13 +1059,13 @@
         <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1137,7 +1100,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1161,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1259,7 +1222,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1257,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1296,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1361,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1458,14 +1421,14 @@
         <v>57</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1478,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10" t="s">
@@ -1488,10 +1451,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="L9" s="4">
         <v>12345678902</v>
@@ -1524,9 +1487,9 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1539,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1547,10 +1510,10 @@
         <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="L10" s="4">
         <v>12345678902</v>
@@ -1589,9 +1552,9 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1604,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1612,10 +1575,10 @@
         <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="L11" s="4">
         <v>12345678902</v>
@@ -1649,14 +1612,14 @@
         <v>57</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1679,7 +1642,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1687,15 +1650,15 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1724,9 +1687,9 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1748,13 +1711,13 @@
         <v>43</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="4">
         <v>12345678901</v>
@@ -1783,13 +1746,13 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27">
       <c r="A15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -1802,18 +1765,18 @@
         <v>11</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="2">
         <v>9087654400</v>
@@ -1844,15 +1807,15 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>47</v>
@@ -1901,19 +1864,19 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1964,7 +1927,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -1972,9 +1935,9 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:27">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -2029,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -2037,9 +2000,9 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -2088,7 +2051,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>56</v>
@@ -2097,16 +2060,16 @@
         <v>57</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -2155,27 +2118,27 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
         <v>111</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>112</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -2227,24 +2190,24 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
+    <hyperlink ref="B4" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
+    <hyperlink ref="B22" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId13"/>
@@ -2252,37 +2215,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1015625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>13</v>
@@ -2359,18 +2322,18 @@
         <v>55</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -2396,7 +2359,7 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="23"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26">
       <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
@@ -2429,18 +2392,18 @@
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
       <c r="Z3" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -2466,15 +2429,15 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="23"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26">
       <c r="A5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -2500,12 +2463,12 @@
       <c r="Y5" s="22"/>
       <c r="Z5" s="23"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26">
       <c r="A6" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="22">
         <v>123</v>
@@ -2534,9 +2497,9 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26">
       <c r="A7" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -2558,13 +2521,13 @@
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="4">
         <v>12345678901</v>
@@ -2593,15 +2556,15 @@
       <c r="X7" s="22"/>
       <c r="Y7" s="22"/>
       <c r="Z7" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1">
       <c r="A8" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -2620,13 +2583,13 @@
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" s="4">
         <v>12345678901</v>
@@ -2655,15 +2618,15 @@
       <c r="X8" s="22"/>
       <c r="Y8" s="22"/>
       <c r="Z8" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1">
       <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>29</v>
@@ -2694,37 +2657,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" display="Employee.tumi@gmail.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4" display="Employee.tumi@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>8</v>
@@ -2744,63 +2707,63 @@
         <v>10</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2814,21 +2777,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2836,8 +2799,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2012,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>36</v>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -322,9 +322,6 @@
     <t>0484660D</t>
   </si>
   <si>
-    <t>T50-F5GD-BTXA-GZWB</t>
-  </si>
-  <si>
     <t>10 SUMAS WAY</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>T30-D5L6-E4LR-WEDL</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10" t="s">
@@ -1316,10 +1316,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="L9" s="4">
         <v>12345678902</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1375,10 +1375,10 @@
         <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="L10" s="4">
         <v>12345678902</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1432,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1440,10 +1440,10 @@
         <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="L11" s="4">
         <v>12345678902</v>
@@ -1675,7 +1675,7 @@
         <v>77</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -1736,12 +1736,12 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -1929,12 +1929,12 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1990,12 +1990,12 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z21" s="2" t="s">
         <v>77</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -2055,7 +2055,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA22" s="2"/>
     </row>
